--- a/data/pca/factorExposure/factorExposure_2010-06-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-09.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01318782546859601</v>
+        <v>-0.01683911128826754</v>
       </c>
       <c r="C2">
-        <v>-0.003807266313985546</v>
+        <v>0.0008603002262431244</v>
       </c>
       <c r="D2">
-        <v>0.01209158115523075</v>
+        <v>0.008622121572748272</v>
       </c>
       <c r="E2">
-        <v>-0.03044061831328447</v>
+        <v>-0.002370981491512057</v>
       </c>
       <c r="F2">
-        <v>-0.02118579958577552</v>
+        <v>0.01330216905124189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1223295046938095</v>
+        <v>-0.09532251381811642</v>
       </c>
       <c r="C4">
-        <v>-0.1008627472413221</v>
+        <v>0.01751631664707308</v>
       </c>
       <c r="D4">
-        <v>-0.009960926357205418</v>
+        <v>0.08085179084600533</v>
       </c>
       <c r="E4">
-        <v>0.09028262742509864</v>
+        <v>0.02606981068425427</v>
       </c>
       <c r="F4">
-        <v>-0.1537771872051439</v>
+        <v>-0.03972921134289179</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1332155364657589</v>
+        <v>-0.1520801838811747</v>
       </c>
       <c r="C6">
-        <v>-0.06006074260669615</v>
+        <v>0.02443739281643955</v>
       </c>
       <c r="D6">
-        <v>-0.00862889615283354</v>
+        <v>-0.02338065210757755</v>
       </c>
       <c r="E6">
-        <v>0.01475096987981205</v>
+        <v>0.01532224161024874</v>
       </c>
       <c r="F6">
-        <v>-0.02140694260655506</v>
+        <v>-0.03856849035059672</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06773637155660675</v>
+        <v>-0.06174024087763891</v>
       </c>
       <c r="C7">
-        <v>-0.07354189873970857</v>
+        <v>5.167433242876051e-05</v>
       </c>
       <c r="D7">
-        <v>0.01246249043310895</v>
+        <v>0.05155571348303986</v>
       </c>
       <c r="E7">
-        <v>0.004754375383055544</v>
+        <v>0.01283434535589919</v>
       </c>
       <c r="F7">
-        <v>-0.01554924113598529</v>
+        <v>-0.05836153785297467</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04685730843476176</v>
+        <v>-0.05957599073379727</v>
       </c>
       <c r="C8">
-        <v>-0.01628520079798502</v>
+        <v>-0.01266711553643292</v>
       </c>
       <c r="D8">
-        <v>-0.00422896519241559</v>
+        <v>0.02780555658983121</v>
       </c>
       <c r="E8">
-        <v>0.07450381605246791</v>
+        <v>0.0121644231253943</v>
       </c>
       <c r="F8">
-        <v>-0.08784589436999417</v>
+        <v>0.02176400740689411</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08617795670637456</v>
+        <v>-0.07260117657926524</v>
       </c>
       <c r="C9">
-        <v>-0.07438840933717372</v>
+        <v>0.01371667052775762</v>
       </c>
       <c r="D9">
-        <v>-0.02644845075568277</v>
+        <v>0.0806915716104353</v>
       </c>
       <c r="E9">
-        <v>0.08137285909646697</v>
+        <v>0.02072250625696952</v>
       </c>
       <c r="F9">
-        <v>-0.1294345142252241</v>
+        <v>-0.06181570242088993</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1341895677924191</v>
+        <v>-0.09208111820157779</v>
       </c>
       <c r="C10">
-        <v>0.1682401573193219</v>
+        <v>0.01466509115105216</v>
       </c>
       <c r="D10">
-        <v>0.01416501084146576</v>
+        <v>-0.1730983024198184</v>
       </c>
       <c r="E10">
-        <v>-0.04257403725913721</v>
+        <v>-0.03536351713782324</v>
       </c>
       <c r="F10">
-        <v>0.02908214986547574</v>
+        <v>0.05091909000557658</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06698381604223921</v>
+        <v>-0.08838676305268287</v>
       </c>
       <c r="C11">
-        <v>-0.06520411123172112</v>
+        <v>0.0129052545740157</v>
       </c>
       <c r="D11">
-        <v>-0.04442578619360778</v>
+        <v>0.1110181137361531</v>
       </c>
       <c r="E11">
-        <v>0.05128563049721459</v>
+        <v>0.04117267300517661</v>
       </c>
       <c r="F11">
-        <v>-0.09411775306868592</v>
+        <v>-0.02804277145293661</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0675378579555878</v>
+        <v>-0.09338033368327922</v>
       </c>
       <c r="C12">
-        <v>-0.06992758810380714</v>
+        <v>0.01084882765748788</v>
       </c>
       <c r="D12">
-        <v>-0.05605842213868071</v>
+        <v>0.118110996261526</v>
       </c>
       <c r="E12">
-        <v>0.08344200940072868</v>
+        <v>0.03924824142793853</v>
       </c>
       <c r="F12">
-        <v>-0.07102095877062707</v>
+        <v>-0.03023828145126261</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03770056081608276</v>
+        <v>-0.04406554558488063</v>
       </c>
       <c r="C13">
-        <v>-0.0388482238665875</v>
+        <v>0.004684247937301276</v>
       </c>
       <c r="D13">
-        <v>0.02017227535264746</v>
+        <v>0.04339442857899072</v>
       </c>
       <c r="E13">
-        <v>0.0308933574789992</v>
+        <v>-0.01517993919449302</v>
       </c>
       <c r="F13">
-        <v>-0.02632793173012138</v>
+        <v>-0.02045809916900201</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0344983974554632</v>
+        <v>-0.02227243546781938</v>
       </c>
       <c r="C14">
-        <v>-0.03603545967031398</v>
+        <v>0.01481073572531629</v>
       </c>
       <c r="D14">
-        <v>-0.01969900021067696</v>
+        <v>0.03210434707559406</v>
       </c>
       <c r="E14">
-        <v>0.03664228393160083</v>
+        <v>0.01595747261821925</v>
       </c>
       <c r="F14">
-        <v>-0.04252867240493636</v>
+        <v>-0.02680826809885905</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0195852559248844</v>
+        <v>-0.03271400152936175</v>
       </c>
       <c r="C15">
-        <v>-0.01765711196187347</v>
+        <v>0.005832210016029041</v>
       </c>
       <c r="D15">
-        <v>0.068303395119828</v>
+        <v>0.04330173843609791</v>
       </c>
       <c r="E15">
-        <v>-0.00837685294424347</v>
+        <v>0.007389872599262888</v>
       </c>
       <c r="F15">
-        <v>-0.02800832875769275</v>
+        <v>-0.0343757544257607</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07607502665936577</v>
+        <v>-0.07542340065172147</v>
       </c>
       <c r="C16">
-        <v>-0.07843281758074223</v>
+        <v>0.004730129564144156</v>
       </c>
       <c r="D16">
-        <v>-0.04204006620044208</v>
+        <v>0.115245237132402</v>
       </c>
       <c r="E16">
-        <v>0.06483199214344371</v>
+        <v>0.05649843878892311</v>
       </c>
       <c r="F16">
-        <v>-0.07151278465537324</v>
+        <v>-0.03644480570463463</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02040252893577925</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003883612310526351</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02200595470824873</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01036616443831586</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02872036737492181</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04668961248975707</v>
+        <v>-0.06168152125275343</v>
       </c>
       <c r="C20">
-        <v>-0.0228889144876211</v>
+        <v>0.002412374684221323</v>
       </c>
       <c r="D20">
-        <v>0.03152087732459152</v>
+        <v>0.070262731396335</v>
       </c>
       <c r="E20">
-        <v>0.0691779852772564</v>
+        <v>0.05094372699779118</v>
       </c>
       <c r="F20">
-        <v>-0.048166015050765</v>
+        <v>-0.03174511089539613</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02264996310128376</v>
+        <v>-0.038739036920697</v>
       </c>
       <c r="C21">
-        <v>-0.01671586478995374</v>
+        <v>0.007887013938873682</v>
       </c>
       <c r="D21">
-        <v>-0.01649236381255001</v>
+        <v>0.03315834644200746</v>
       </c>
       <c r="E21">
-        <v>0.02086595078799043</v>
+        <v>-0.01273684292021165</v>
       </c>
       <c r="F21">
-        <v>-0.06260839568100751</v>
+        <v>0.01882545850127905</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05649139332574188</v>
+        <v>-0.04274269211079085</v>
       </c>
       <c r="C22">
-        <v>-0.03559704073022658</v>
+        <v>0.0007812074470539577</v>
       </c>
       <c r="D22">
-        <v>0.6410547356744468</v>
+        <v>0.002466693508496221</v>
       </c>
       <c r="E22">
-        <v>0.1367810911199919</v>
+        <v>0.03383649883461547</v>
       </c>
       <c r="F22">
-        <v>0.08998690735718326</v>
+        <v>0.02347939639912081</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05736870824263736</v>
+        <v>-0.04283041818562978</v>
       </c>
       <c r="C23">
-        <v>-0.03732990762752122</v>
+        <v>0.0008138860086991267</v>
       </c>
       <c r="D23">
-        <v>0.6433047850927608</v>
+        <v>0.002660542838014767</v>
       </c>
       <c r="E23">
-        <v>0.1393185047877654</v>
+        <v>0.03424732821249895</v>
       </c>
       <c r="F23">
-        <v>0.08558790139880729</v>
+        <v>0.02294143060765899</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07513268493968467</v>
+        <v>-0.08175922248908499</v>
       </c>
       <c r="C24">
-        <v>-0.07767270526950684</v>
+        <v>0.004923499512485406</v>
       </c>
       <c r="D24">
-        <v>-0.03337584037226357</v>
+        <v>0.114790468720932</v>
       </c>
       <c r="E24">
-        <v>0.05908957791715869</v>
+        <v>0.04469204941318468</v>
       </c>
       <c r="F24">
-        <v>-0.08354112307394193</v>
+        <v>-0.02879316414455541</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07383775456491232</v>
+        <v>-0.08583014784915796</v>
       </c>
       <c r="C25">
-        <v>-0.05958161253615588</v>
+        <v>0.006843940558800548</v>
       </c>
       <c r="D25">
-        <v>-0.05926852749027747</v>
+        <v>0.1017210419752043</v>
       </c>
       <c r="E25">
-        <v>0.06002971183101533</v>
+        <v>0.02704263468920673</v>
       </c>
       <c r="F25">
-        <v>-0.08439696345805169</v>
+        <v>-0.03800578793465168</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04158395972326875</v>
+        <v>-0.05661524454486183</v>
       </c>
       <c r="C26">
-        <v>-0.003898477814598551</v>
+        <v>0.0155894621812207</v>
       </c>
       <c r="D26">
-        <v>0.01521441150796301</v>
+        <v>0.03290489646750526</v>
       </c>
       <c r="E26">
-        <v>0.09020861124591049</v>
+        <v>0.02313101386990484</v>
       </c>
       <c r="F26">
-        <v>-0.01809638291898391</v>
+        <v>0.00159658322197552</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.16121226094594</v>
+        <v>-0.1381185381166584</v>
       </c>
       <c r="C28">
-        <v>0.2712445661531495</v>
+        <v>0.01201353754282457</v>
       </c>
       <c r="D28">
-        <v>-0.006214854076927581</v>
+        <v>-0.272121093266051</v>
       </c>
       <c r="E28">
-        <v>0.03433597160946697</v>
+        <v>-0.0665985471706471</v>
       </c>
       <c r="F28">
-        <v>-0.01825918607513437</v>
+        <v>-0.04264383865572929</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03368229887473456</v>
+        <v>-0.02761632972309239</v>
       </c>
       <c r="C29">
-        <v>-0.02958447534349229</v>
+        <v>0.009122827084328369</v>
       </c>
       <c r="D29">
-        <v>-0.01849054076770566</v>
+        <v>0.03015630792056192</v>
       </c>
       <c r="E29">
-        <v>0.03822969127500953</v>
+        <v>0.00837781747799248</v>
       </c>
       <c r="F29">
-        <v>-0.04811858786578622</v>
+        <v>0.005384517720184681</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09047433655868435</v>
+        <v>-0.06506757746587424</v>
       </c>
       <c r="C30">
-        <v>-0.05425171275761417</v>
+        <v>0.006695322119964063</v>
       </c>
       <c r="D30">
-        <v>-0.03858172235603111</v>
+        <v>0.07890683914151253</v>
       </c>
       <c r="E30">
-        <v>0.3180033519351961</v>
+        <v>0.02202006509807802</v>
       </c>
       <c r="F30">
-        <v>-0.0460322123666846</v>
+        <v>-0.1229002022056538</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03129597313820653</v>
+        <v>-0.04898191513287267</v>
       </c>
       <c r="C31">
-        <v>-0.06325898914262877</v>
+        <v>0.01516718166875418</v>
       </c>
       <c r="D31">
-        <v>-0.0003634609579160512</v>
+        <v>0.02897631258308874</v>
       </c>
       <c r="E31">
-        <v>0.02129555931784164</v>
+        <v>0.02641769417880519</v>
       </c>
       <c r="F31">
-        <v>-0.03922748773712188</v>
+        <v>0.002290377180944171</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05520403867991436</v>
+        <v>-0.04936874424192977</v>
       </c>
       <c r="C32">
-        <v>-0.01430455129138181</v>
+        <v>0.0005960041078736852</v>
       </c>
       <c r="D32">
-        <v>-0.05647330887592591</v>
+        <v>0.03023809576902154</v>
       </c>
       <c r="E32">
-        <v>-0.01875264911292352</v>
+        <v>0.02642727877733747</v>
       </c>
       <c r="F32">
-        <v>-0.07543519174747902</v>
+        <v>-0.003486050603046745</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09712877474026316</v>
+        <v>-0.09212865828529969</v>
       </c>
       <c r="C33">
-        <v>-0.07778062065427996</v>
+        <v>0.0100800385156884</v>
       </c>
       <c r="D33">
-        <v>-0.0322034048186576</v>
+        <v>0.0911346600078</v>
       </c>
       <c r="E33">
-        <v>0.07355012114384687</v>
+        <v>0.04373832262301873</v>
       </c>
       <c r="F33">
-        <v>-0.01554463926154775</v>
+        <v>-0.04436153285492243</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06625253295401042</v>
+        <v>-0.06932761151655202</v>
       </c>
       <c r="C34">
-        <v>-0.05679962603932526</v>
+        <v>0.01285409048822697</v>
       </c>
       <c r="D34">
-        <v>-0.0432349615073647</v>
+        <v>0.09521902466108503</v>
       </c>
       <c r="E34">
-        <v>0.06101424635483137</v>
+        <v>0.02813419727515639</v>
       </c>
       <c r="F34">
-        <v>-0.08870912404375411</v>
+        <v>-0.0537863870537682</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01625071863951472</v>
+        <v>-0.02458005516095549</v>
       </c>
       <c r="C35">
-        <v>-0.003540756607233305</v>
+        <v>0.002686773620031192</v>
       </c>
       <c r="D35">
-        <v>0.00176225602971466</v>
+        <v>0.009523399986025544</v>
       </c>
       <c r="E35">
-        <v>0.0253251483563843</v>
+        <v>0.01085044314028384</v>
       </c>
       <c r="F35">
-        <v>-0.03551215674051742</v>
+        <v>-0.01228905050625778</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02386193813623788</v>
+        <v>-0.02500003000955244</v>
       </c>
       <c r="C36">
-        <v>-0.01688891235181046</v>
+        <v>0.007295810897956183</v>
       </c>
       <c r="D36">
-        <v>0.01043801529534551</v>
+        <v>0.03754362847313299</v>
       </c>
       <c r="E36">
-        <v>0.05769461588342385</v>
+        <v>0.01523865440844713</v>
       </c>
       <c r="F36">
-        <v>-0.05117860078160379</v>
+        <v>-0.009378880845369203</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0180443001495457</v>
+        <v>-0.002553691411731877</v>
       </c>
       <c r="C38">
-        <v>-0.04496422729140154</v>
+        <v>0.0004468559778185842</v>
       </c>
       <c r="D38">
-        <v>0.02527920541687115</v>
+        <v>0.002661129211517975</v>
       </c>
       <c r="E38">
-        <v>-0.006842345406895744</v>
+        <v>0.003400172974685714</v>
       </c>
       <c r="F38">
-        <v>0.1315264643656527</v>
+        <v>0.002606757194633395</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1050950850655376</v>
+        <v>-0.1112180186291896</v>
       </c>
       <c r="C39">
-        <v>-0.09287092099055473</v>
+        <v>0.01865037097669212</v>
       </c>
       <c r="D39">
-        <v>-0.1415436214985401</v>
+        <v>0.1467671909249395</v>
       </c>
       <c r="E39">
-        <v>0.1972367707881519</v>
+        <v>0.05063814954867042</v>
       </c>
       <c r="F39">
-        <v>-0.03186649045866981</v>
+        <v>-0.0423345160847318</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02606452990759226</v>
+        <v>-0.03778551686954507</v>
       </c>
       <c r="C40">
-        <v>-0.06752612420492332</v>
+        <v>0.007662273047067462</v>
       </c>
       <c r="D40">
-        <v>0.02420260106418301</v>
+        <v>0.02980539633540198</v>
       </c>
       <c r="E40">
-        <v>-0.01131523197162672</v>
+        <v>0.001786442254665425</v>
       </c>
       <c r="F40">
-        <v>-0.07733220620340711</v>
+        <v>0.01798778994708535</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03588423804419835</v>
+        <v>-0.02681057049680892</v>
       </c>
       <c r="C41">
-        <v>-0.02585425945017742</v>
+        <v>0.006821869120225018</v>
       </c>
       <c r="D41">
-        <v>-0.01851423483148859</v>
+        <v>0.01068049673578775</v>
       </c>
       <c r="E41">
-        <v>0.01732398188996941</v>
+        <v>0.01123061898406652</v>
       </c>
       <c r="F41">
-        <v>0.00706846486891508</v>
+        <v>0.01191737472335084</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04426623257951685</v>
+        <v>-0.04283416181304088</v>
       </c>
       <c r="C43">
-        <v>-0.04452213112255781</v>
+        <v>0.007186722171184654</v>
       </c>
       <c r="D43">
-        <v>0.007189387718932536</v>
+        <v>0.02074267523984726</v>
       </c>
       <c r="E43">
-        <v>0.04417822998159431</v>
+        <v>0.02528906594389197</v>
       </c>
       <c r="F43">
-        <v>0.01344145407806009</v>
+        <v>0.01096013609735555</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09927520706472885</v>
+        <v>-0.07330565813939846</v>
       </c>
       <c r="C44">
-        <v>-0.09999916899333028</v>
+        <v>0.0228974833367644</v>
       </c>
       <c r="D44">
-        <v>0.07975166917297467</v>
+        <v>0.0979729959123767</v>
       </c>
       <c r="E44">
-        <v>0.06568364148572893</v>
+        <v>0.06490585322088291</v>
       </c>
       <c r="F44">
-        <v>-0.09673424001979462</v>
+        <v>-0.1836511869351647</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.03630453267442324</v>
+        <v>-0.02365212926527291</v>
       </c>
       <c r="C46">
-        <v>-0.03625068729608227</v>
+        <v>0.00430637984084356</v>
       </c>
       <c r="D46">
-        <v>0.04109940589712668</v>
+        <v>0.01139439291895197</v>
       </c>
       <c r="E46">
-        <v>0.01956425099517746</v>
+        <v>0.0208994719862186</v>
       </c>
       <c r="F46">
-        <v>-0.04836635393762845</v>
+        <v>0.0008030544744581481</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04768398583135678</v>
+        <v>-0.05327249790692363</v>
       </c>
       <c r="C47">
-        <v>-0.04378444908613413</v>
+        <v>0.003518634541167296</v>
       </c>
       <c r="D47">
-        <v>0.0007728320678389793</v>
+        <v>0.01308477311857997</v>
       </c>
       <c r="E47">
-        <v>0.01303459330222352</v>
+        <v>0.02329656402657959</v>
       </c>
       <c r="F47">
-        <v>-0.009714094244684789</v>
+        <v>0.04744172637090845</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0451029462058111</v>
+        <v>-0.04852756903610063</v>
       </c>
       <c r="C48">
-        <v>-0.01994510619712078</v>
+        <v>0.003310698104998067</v>
       </c>
       <c r="D48">
-        <v>-0.01332360481439241</v>
+        <v>0.04512132858064086</v>
       </c>
       <c r="E48">
-        <v>0.03064289741781104</v>
+        <v>-0.008445592953520223</v>
       </c>
       <c r="F48">
-        <v>-0.08726769251685014</v>
+        <v>-0.01775291819714108</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.227253150831137</v>
+        <v>-0.2047103825331664</v>
       </c>
       <c r="C49">
-        <v>-0.04376838752982946</v>
+        <v>0.01672276715899203</v>
       </c>
       <c r="D49">
-        <v>-0.02176079469577958</v>
+        <v>-0.009279487709454115</v>
       </c>
       <c r="E49">
-        <v>-0.2137403195577001</v>
+        <v>0.04062796409599168</v>
       </c>
       <c r="F49">
-        <v>0.2441404723021075</v>
+        <v>-0.03416882649095706</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04194484282934827</v>
+        <v>-0.04880743251347877</v>
       </c>
       <c r="C50">
-        <v>-0.04569928321297874</v>
+        <v>0.01123432159462373</v>
       </c>
       <c r="D50">
-        <v>-0.01751040418254513</v>
+        <v>0.02645710597144629</v>
       </c>
       <c r="E50">
-        <v>0.06512730231076182</v>
+        <v>0.02868746912632326</v>
       </c>
       <c r="F50">
-        <v>-0.02595800282257558</v>
+        <v>-0.006720942575925349</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02480465651313861</v>
+        <v>-0.003180879169524817</v>
       </c>
       <c r="C51">
-        <v>0.001544845103424582</v>
+        <v>0.0007635027503174072</v>
       </c>
       <c r="D51">
-        <v>0.002647971102795467</v>
+        <v>-0.001815403632961559</v>
       </c>
       <c r="E51">
-        <v>-0.05057207187277885</v>
+        <v>0.001075580308694428</v>
       </c>
       <c r="F51">
-        <v>0.02186183771970145</v>
+        <v>-0.004516509565447982</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0523587117344674</v>
+        <v>-0.1425504686359087</v>
       </c>
       <c r="C52">
-        <v>-0.02942228854730701</v>
+        <v>0.01280408925994691</v>
       </c>
       <c r="D52">
-        <v>-0.03235606498014353</v>
+        <v>0.0489349158309622</v>
       </c>
       <c r="E52">
-        <v>0.03582766882505617</v>
+        <v>0.01815071473164315</v>
       </c>
       <c r="F52">
-        <v>0.01913366211768366</v>
+        <v>-0.0322361753509046</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1530818766176062</v>
+        <v>-0.1729861226361241</v>
       </c>
       <c r="C53">
-        <v>-0.06740819379065037</v>
+        <v>0.0156825148661197</v>
       </c>
       <c r="D53">
-        <v>0.01093858432909941</v>
+        <v>0.01583768436085026</v>
       </c>
       <c r="E53">
-        <v>-6.21424944376815e-05</v>
+        <v>0.03852385498347963</v>
       </c>
       <c r="F53">
-        <v>0.1096484293431666</v>
+        <v>-0.06002536176693957</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05486784650221357</v>
+        <v>-0.02330981356630155</v>
       </c>
       <c r="C54">
-        <v>-0.04556464095037364</v>
+        <v>0.01286027015123158</v>
       </c>
       <c r="D54">
-        <v>-0.001461009597284161</v>
+        <v>0.03181019035256499</v>
       </c>
       <c r="E54">
-        <v>0.06379110030857708</v>
+        <v>0.01280245620082336</v>
       </c>
       <c r="F54">
-        <v>-0.1241713600416605</v>
+        <v>0.001313401125218631</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07940571320299694</v>
+        <v>-0.1142712761240892</v>
       </c>
       <c r="C55">
-        <v>-0.04990901631505708</v>
+        <v>0.01446847315420558</v>
       </c>
       <c r="D55">
-        <v>-0.0341323083857111</v>
+        <v>0.01411245102522004</v>
       </c>
       <c r="E55">
-        <v>-0.01498298058910874</v>
+        <v>0.03063852983133271</v>
       </c>
       <c r="F55">
-        <v>0.01998203987014334</v>
+        <v>-0.04645225499554824</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1430394303358865</v>
+        <v>-0.1774157821313152</v>
       </c>
       <c r="C56">
-        <v>-0.09906263675363201</v>
+        <v>0.01312433581334948</v>
       </c>
       <c r="D56">
-        <v>-0.023197739524048</v>
+        <v>0.009664067956817223</v>
       </c>
       <c r="E56">
-        <v>-0.001669034298044332</v>
+        <v>0.04327007190957088</v>
       </c>
       <c r="F56">
-        <v>0.06320715975952801</v>
+        <v>-0.03039255083147135</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04329326106730176</v>
+        <v>-0.04742405147310999</v>
       </c>
       <c r="C58">
-        <v>-0.03145687449668361</v>
+        <v>0.002923572600381462</v>
       </c>
       <c r="D58">
-        <v>0.03652602516527007</v>
+        <v>0.06410706020517704</v>
       </c>
       <c r="E58">
-        <v>0.03878839923813492</v>
+        <v>0.01667835746911474</v>
       </c>
       <c r="F58">
-        <v>-0.02768232129587018</v>
+        <v>0.04459614395043699</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2210367180448307</v>
+        <v>-0.1696302606932124</v>
       </c>
       <c r="C59">
-        <v>0.2331055752209111</v>
+        <v>0.01379101132188329</v>
       </c>
       <c r="D59">
-        <v>-0.03780751507800814</v>
+        <v>-0.2320936164868364</v>
       </c>
       <c r="E59">
-        <v>-0.06025423510419761</v>
+        <v>-0.04808135552081194</v>
       </c>
       <c r="F59">
-        <v>-0.04176310044464276</v>
+        <v>0.02960396934903926</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2289681405486566</v>
+        <v>-0.2392286699209157</v>
       </c>
       <c r="C60">
-        <v>-0.1484139969912681</v>
+        <v>-0.004503198721972532</v>
       </c>
       <c r="D60">
-        <v>-0.07242179929364888</v>
+        <v>0.04987405286992163</v>
       </c>
       <c r="E60">
-        <v>-0.1023692014589887</v>
+        <v>0.01078798477030439</v>
       </c>
       <c r="F60">
-        <v>0.1059377741442859</v>
+        <v>0.04313284211059672</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1084089515049192</v>
+        <v>-0.08606352582285455</v>
       </c>
       <c r="C61">
-        <v>-0.07990626904100899</v>
+        <v>0.01453384476906652</v>
       </c>
       <c r="D61">
-        <v>-0.08319811696957954</v>
+        <v>0.1085742536650549</v>
       </c>
       <c r="E61">
-        <v>0.1478490910494266</v>
+        <v>0.03374193500067514</v>
       </c>
       <c r="F61">
-        <v>-0.08208967239102333</v>
+        <v>-0.02491659910648055</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1338561612402692</v>
+        <v>-0.1692933687405228</v>
       </c>
       <c r="C62">
-        <v>-0.07729594411798454</v>
+        <v>0.0170367553029104</v>
       </c>
       <c r="D62">
-        <v>0.0008319331563624887</v>
+        <v>0.01294768350867758</v>
       </c>
       <c r="E62">
-        <v>-0.0255607475319218</v>
+        <v>0.03985636337103809</v>
       </c>
       <c r="F62">
-        <v>0.09411958087710014</v>
+        <v>-0.01153179014060733</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04998868499473377</v>
+        <v>-0.0429039308530218</v>
       </c>
       <c r="C63">
-        <v>-0.02458128466723171</v>
+        <v>0.00405973461348406</v>
       </c>
       <c r="D63">
-        <v>-0.01014500675487052</v>
+        <v>0.0475263523939408</v>
       </c>
       <c r="E63">
-        <v>0.06607592801385054</v>
+        <v>0.01582401640113736</v>
       </c>
       <c r="F63">
-        <v>-0.04802701646073671</v>
+        <v>-0.01152707067783835</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09288214130158358</v>
+        <v>-0.1121505949860965</v>
       </c>
       <c r="C64">
-        <v>-0.05531763761706057</v>
+        <v>0.01184867671669636</v>
       </c>
       <c r="D64">
-        <v>-0.003215603645463528</v>
+        <v>0.03980258969783226</v>
       </c>
       <c r="E64">
-        <v>0.08557569103432038</v>
+        <v>0.02052538298134747</v>
       </c>
       <c r="F64">
-        <v>-0.0194621991806081</v>
+        <v>-0.01670760172031189</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1213671107139394</v>
+        <v>-0.1436870487676953</v>
       </c>
       <c r="C65">
-        <v>-0.0463620384847024</v>
+        <v>0.03091551269764359</v>
       </c>
       <c r="D65">
-        <v>-0.02524502243468239</v>
+        <v>-0.04659475652837141</v>
       </c>
       <c r="E65">
-        <v>0.0638330576494542</v>
+        <v>0.003347474607871925</v>
       </c>
       <c r="F65">
-        <v>0.01252660197342077</v>
+        <v>-0.04271468591647374</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1212692844153264</v>
+        <v>-0.1333761617218972</v>
       </c>
       <c r="C66">
-        <v>-0.1276801442592614</v>
+        <v>0.0162551487617315</v>
       </c>
       <c r="D66">
-        <v>-0.1292980999548456</v>
+        <v>0.1344299438460929</v>
       </c>
       <c r="E66">
-        <v>0.1813343910405134</v>
+        <v>0.05956158354370032</v>
       </c>
       <c r="F66">
-        <v>0.002032762261160028</v>
+        <v>-0.04603523203908416</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06866165727643921</v>
+        <v>-0.06476314635652335</v>
       </c>
       <c r="C67">
-        <v>-0.05155730942021627</v>
+        <v>0.003901747391345112</v>
       </c>
       <c r="D67">
-        <v>0.03636234654794174</v>
+        <v>0.05487180552297095</v>
       </c>
       <c r="E67">
-        <v>-0.01481470677459764</v>
+        <v>0.02061449549748761</v>
       </c>
       <c r="F67">
-        <v>0.1412682752218145</v>
+        <v>0.04322546563215007</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1357402537973068</v>
+        <v>-0.1115350921705549</v>
       </c>
       <c r="C68">
-        <v>0.2590042799511746</v>
+        <v>0.02305338185477849</v>
       </c>
       <c r="D68">
-        <v>-0.01995261830335692</v>
+        <v>-0.2693872446831862</v>
       </c>
       <c r="E68">
-        <v>0.04997614921522386</v>
+        <v>-0.08532160512789817</v>
       </c>
       <c r="F68">
-        <v>-0.02065906861503195</v>
+        <v>-0.0477687546142763</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04896348102192297</v>
+        <v>-0.04040863494144234</v>
       </c>
       <c r="C69">
-        <v>-0.0164357233739494</v>
+        <v>0.001220308960876787</v>
       </c>
       <c r="D69">
-        <v>0.002553383020256327</v>
+        <v>0.009373259878602517</v>
       </c>
       <c r="E69">
-        <v>0.03364748429705453</v>
+        <v>0.02588840201383472</v>
       </c>
       <c r="F69">
-        <v>0.009909526984275887</v>
+        <v>0.01716126928600173</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04992837715315869</v>
+        <v>-0.06461222056215778</v>
       </c>
       <c r="C70">
-        <v>-0.03907280733031978</v>
+        <v>-0.02718322395610431</v>
       </c>
       <c r="D70">
-        <v>-0.03373152398928647</v>
+        <v>0.02549021754895977</v>
       </c>
       <c r="E70">
-        <v>0.07290878641691698</v>
+        <v>-0.04639954090850238</v>
       </c>
       <c r="F70">
-        <v>-0.0428142081006585</v>
+        <v>0.3443008159345147</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1541783691729271</v>
+        <v>-0.1306001550341413</v>
       </c>
       <c r="C71">
-        <v>0.2745633730615415</v>
+        <v>0.02708941532622189</v>
       </c>
       <c r="D71">
-        <v>-0.01618326738761179</v>
+        <v>-0.2858637174060986</v>
       </c>
       <c r="E71">
-        <v>0.07521486928418024</v>
+        <v>-0.09263714945187142</v>
       </c>
       <c r="F71">
-        <v>-0.01152373956666576</v>
+        <v>-0.04995321234227156</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1329461619480353</v>
+        <v>-0.1379351067319483</v>
       </c>
       <c r="C72">
-        <v>-0.01685796225740074</v>
+        <v>0.02394520126856458</v>
       </c>
       <c r="D72">
-        <v>-0.005335735705065469</v>
+        <v>0.004751873699968902</v>
       </c>
       <c r="E72">
-        <v>0.04728990340282475</v>
+        <v>0.04244149048894614</v>
       </c>
       <c r="F72">
-        <v>0.01736092541849007</v>
+        <v>-0.02409811942719718</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2154268461734449</v>
+        <v>-0.2068572849527976</v>
       </c>
       <c r="C73">
-        <v>-0.09799746957170295</v>
+        <v>0.0109589765158172</v>
       </c>
       <c r="D73">
-        <v>-0.1152208693846401</v>
+        <v>0.01855310163276013</v>
       </c>
       <c r="E73">
-        <v>-0.284782431563822</v>
+        <v>0.06751217539160854</v>
       </c>
       <c r="F73">
-        <v>0.4318969734868374</v>
+        <v>-0.02477611474129129</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09888715476055202</v>
+        <v>-0.09406339994138947</v>
       </c>
       <c r="C74">
-        <v>-0.09222232389633502</v>
+        <v>0.01185284855426215</v>
       </c>
       <c r="D74">
-        <v>-0.01106100138308397</v>
+        <v>0.02510907257362072</v>
       </c>
       <c r="E74">
-        <v>0.03960992504869544</v>
+        <v>0.05121196123346244</v>
       </c>
       <c r="F74">
-        <v>0.1064020916871358</v>
+        <v>-0.04048261619980868</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09705073523766336</v>
+        <v>-0.1302415272993852</v>
       </c>
       <c r="C75">
-        <v>-0.07129858093488105</v>
+        <v>0.02623958221186116</v>
       </c>
       <c r="D75">
-        <v>-0.005483220087300304</v>
+        <v>0.03432949462290209</v>
       </c>
       <c r="E75">
-        <v>-0.01544353198473986</v>
+        <v>0.06123929087270909</v>
       </c>
       <c r="F75">
-        <v>0.002610667979234852</v>
+        <v>-0.009218676220176998</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.05408662061817331</v>
+        <v>-0.007271245260662926</v>
       </c>
       <c r="C76">
-        <v>-0.06169116496644054</v>
+        <v>0.001618292171539292</v>
       </c>
       <c r="D76">
-        <v>0.00631531958200372</v>
+        <v>0.002597682390097176</v>
       </c>
       <c r="E76">
-        <v>-0.03896722395935406</v>
+        <v>0.007265431263819667</v>
       </c>
       <c r="F76">
-        <v>0.03685442602309029</v>
+        <v>-0.004154344387007545</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06669112321330883</v>
+        <v>-0.08045595522931351</v>
       </c>
       <c r="C77">
-        <v>-0.02769633266782781</v>
+        <v>0.01055847270913532</v>
       </c>
       <c r="D77">
-        <v>-0.04015571922121342</v>
+        <v>0.1088168738061287</v>
       </c>
       <c r="E77">
-        <v>0.07438709244175652</v>
+        <v>0.03321169769379905</v>
       </c>
       <c r="F77">
-        <v>-0.1341409508667006</v>
+        <v>-0.03446868909423383</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1578928259781185</v>
+        <v>-0.1101963809791601</v>
       </c>
       <c r="C78">
-        <v>-0.1412301103102762</v>
+        <v>0.04311118488314112</v>
       </c>
       <c r="D78">
-        <v>0.1821834081360288</v>
+        <v>0.1184341378085464</v>
       </c>
       <c r="E78">
-        <v>-0.4732864399071692</v>
+        <v>0.08972170820481558</v>
       </c>
       <c r="F78">
-        <v>-0.5816497142439233</v>
+        <v>-0.07675518961970976</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1315910401663919</v>
+        <v>-0.1634115776883701</v>
       </c>
       <c r="C79">
-        <v>-0.09134058849001721</v>
+        <v>0.02021078617605835</v>
       </c>
       <c r="D79">
-        <v>0.006150304916102319</v>
+        <v>0.01998690205419723</v>
       </c>
       <c r="E79">
-        <v>0.008210786082225564</v>
+        <v>0.04936837295678835</v>
       </c>
       <c r="F79">
-        <v>0.04922406389778404</v>
+        <v>-0.005435775213565834</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06806905258941622</v>
+        <v>-0.0807835600436813</v>
       </c>
       <c r="C80">
-        <v>-0.04098594605791745</v>
+        <v>-0.000836870389978499</v>
       </c>
       <c r="D80">
-        <v>-0.08698689287531404</v>
+        <v>0.05554298706195258</v>
       </c>
       <c r="E80">
-        <v>0.05734921237726254</v>
+        <v>0.02945011086921158</v>
       </c>
       <c r="F80">
-        <v>-0.02753506304835675</v>
+        <v>0.009959726801967916</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1290782076072283</v>
+        <v>-0.1235503359188912</v>
       </c>
       <c r="C81">
-        <v>-0.09495356116600648</v>
+        <v>0.03015154911461076</v>
       </c>
       <c r="D81">
-        <v>0.005152442799223077</v>
+        <v>0.02068079832009366</v>
       </c>
       <c r="E81">
-        <v>0.03869853953876767</v>
+        <v>0.06209483811809217</v>
       </c>
       <c r="F81">
-        <v>-0.009424782208117441</v>
+        <v>0.002226666800984619</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1268131979471106</v>
+        <v>-0.1625028514946229</v>
       </c>
       <c r="C82">
-        <v>-0.06807633907654075</v>
+        <v>0.02060506981225542</v>
       </c>
       <c r="D82">
-        <v>-0.0133698110005166</v>
+        <v>0.01710163352788728</v>
       </c>
       <c r="E82">
-        <v>0.04735529602994019</v>
+        <v>0.03689062861363696</v>
       </c>
       <c r="F82">
-        <v>0.06759557369658212</v>
+        <v>-0.05493583058631784</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07060038664904586</v>
+        <v>-0.06564575197088421</v>
       </c>
       <c r="C83">
-        <v>-0.07804794233841464</v>
+        <v>0.003950735455458143</v>
       </c>
       <c r="D83">
-        <v>-0.03490533893224151</v>
+        <v>0.04872485932891314</v>
       </c>
       <c r="E83">
-        <v>0.102223105063692</v>
+        <v>0.002603694471671031</v>
       </c>
       <c r="F83">
-        <v>0.05043571688524735</v>
+        <v>0.03815785685712612</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05878626609801041</v>
+        <v>-0.0608695829059771</v>
       </c>
       <c r="C84">
-        <v>0.06519073414364289</v>
+        <v>0.01139510660240054</v>
       </c>
       <c r="D84">
-        <v>-0.03284445890179439</v>
+        <v>0.06006194844383071</v>
       </c>
       <c r="E84">
-        <v>-0.08030650648878421</v>
+        <v>-0.004189684864979399</v>
       </c>
       <c r="F84">
-        <v>-0.1542915171095333</v>
+        <v>-0.01402335150749273</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1188161611541775</v>
+        <v>-0.1381664475915041</v>
       </c>
       <c r="C85">
-        <v>-0.06148245120299053</v>
+        <v>0.02550387311663306</v>
       </c>
       <c r="D85">
-        <v>-0.006679748160415896</v>
+        <v>0.01603933519386722</v>
       </c>
       <c r="E85">
-        <v>0.01728749625184658</v>
+        <v>0.04103677615245015</v>
       </c>
       <c r="F85">
-        <v>0.06560725814873107</v>
+        <v>-0.0414685514440185</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0885071540117998</v>
+        <v>-0.1003581235531879</v>
       </c>
       <c r="C86">
-        <v>-0.03864592732829126</v>
+        <v>-0.007213435048780636</v>
       </c>
       <c r="D86">
-        <v>0.02895767780321398</v>
+        <v>0.02064304247225132</v>
       </c>
       <c r="E86">
-        <v>-0.345265955322588</v>
+        <v>0.1296782756627403</v>
       </c>
       <c r="F86">
-        <v>-0.1422393037491125</v>
+        <v>0.8262007531278247</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1168583686539182</v>
+        <v>-0.1003360202379151</v>
       </c>
       <c r="C87">
-        <v>-0.08594564561999347</v>
+        <v>0.02557626922266992</v>
       </c>
       <c r="D87">
-        <v>0.0148702815503156</v>
+        <v>0.073059124484111</v>
       </c>
       <c r="E87">
-        <v>0.01571402957224659</v>
+        <v>-0.05296897584744894</v>
       </c>
       <c r="F87">
-        <v>-0.04157212224814574</v>
+        <v>-0.09194638375252835</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05825667435441281</v>
+        <v>-0.06246885036649582</v>
       </c>
       <c r="C88">
-        <v>-0.05955388289277503</v>
+        <v>0.003290433362323112</v>
       </c>
       <c r="D88">
-        <v>-0.0430546384350261</v>
+        <v>0.05333747576476346</v>
       </c>
       <c r="E88">
-        <v>0.05489662312683621</v>
+        <v>0.02611496020503709</v>
       </c>
       <c r="F88">
-        <v>0.01868936250754492</v>
+        <v>-0.007651627983998567</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.226712330043647</v>
+        <v>-0.1319501515058722</v>
       </c>
       <c r="C89">
-        <v>0.3686121673885226</v>
+        <v>0.00579551049567081</v>
       </c>
       <c r="D89">
-        <v>0.05916909730125962</v>
+        <v>-0.266431385028989</v>
       </c>
       <c r="E89">
-        <v>-0.03441716023775108</v>
+        <v>-0.09032014177426369</v>
       </c>
       <c r="F89">
-        <v>-0.02889159974222323</v>
+        <v>-0.03195739811679321</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1638040507382144</v>
+        <v>-0.1425640879221248</v>
       </c>
       <c r="C90">
-        <v>0.2578524614645323</v>
+        <v>0.02275438134121922</v>
       </c>
       <c r="D90">
-        <v>-0.01097737481277368</v>
+        <v>-0.2731372870497052</v>
       </c>
       <c r="E90">
-        <v>0.04409603653592405</v>
+        <v>-0.1054590476732854</v>
       </c>
       <c r="F90">
-        <v>0.01730787036844647</v>
+        <v>-0.03517121433098261</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07835499852041057</v>
+        <v>-0.1170673742253307</v>
       </c>
       <c r="C91">
-        <v>-0.07335296865618121</v>
+        <v>0.01627322341314449</v>
       </c>
       <c r="D91">
-        <v>-0.008406062053811055</v>
+        <v>-0.003679499173372904</v>
       </c>
       <c r="E91">
-        <v>5.372956163784798e-05</v>
+        <v>0.05968204459431325</v>
       </c>
       <c r="F91">
-        <v>0.005047080440870132</v>
+        <v>0.03021432459425704</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1860469457117758</v>
+        <v>-0.145836973658806</v>
       </c>
       <c r="C92">
-        <v>0.3002828210737916</v>
+        <v>0.01455462351059627</v>
       </c>
       <c r="D92">
-        <v>0.02868782762571234</v>
+        <v>-0.3064991295735996</v>
       </c>
       <c r="E92">
-        <v>0.04148621556411892</v>
+        <v>-0.1009245803748676</v>
       </c>
       <c r="F92">
-        <v>-0.08505892390466487</v>
+        <v>-0.02852722901004888</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1751364014702517</v>
+        <v>-0.1467280069661933</v>
       </c>
       <c r="C93">
-        <v>0.298765393656735</v>
+        <v>0.01921082364416076</v>
       </c>
       <c r="D93">
-        <v>-0.03841839043621437</v>
+        <v>-0.2755300946421329</v>
       </c>
       <c r="E93">
-        <v>0.02977842547451923</v>
+        <v>-0.07134551321403285</v>
       </c>
       <c r="F93">
-        <v>-0.01258841585777546</v>
+        <v>-0.02558244387444733</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1210546841092636</v>
+        <v>-0.133513489465218</v>
       </c>
       <c r="C94">
-        <v>-0.08218129247977898</v>
+        <v>0.02351775783997279</v>
       </c>
       <c r="D94">
-        <v>0.01022707990786843</v>
+        <v>0.04756085298810723</v>
       </c>
       <c r="E94">
-        <v>-0.002773720170442968</v>
+        <v>0.06212375197090606</v>
       </c>
       <c r="F94">
-        <v>0.03869868756306172</v>
+        <v>-0.02702008210065672</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1189194055835075</v>
+        <v>-0.1272503303169304</v>
       </c>
       <c r="C95">
-        <v>-0.07591578081524307</v>
+        <v>0.005817147122728866</v>
       </c>
       <c r="D95">
-        <v>0.02219120865641839</v>
+        <v>0.09055831828504753</v>
       </c>
       <c r="E95">
-        <v>-0.07429220994342187</v>
+        <v>0.04358810962080355</v>
       </c>
       <c r="F95">
-        <v>-0.1389192177842654</v>
+        <v>0.01098575655597978</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.001219429905997668</v>
+        <v>-0.09529070816386757</v>
       </c>
       <c r="C96">
-        <v>-0.0006387414904413654</v>
+        <v>-0.989344970658254</v>
       </c>
       <c r="D96">
-        <v>-0.001295257850894682</v>
+        <v>-0.02035021839576615</v>
       </c>
       <c r="E96">
-        <v>0.0002550447856070584</v>
+        <v>0.05936124758456814</v>
       </c>
       <c r="F96">
-        <v>0.002079831423151593</v>
+        <v>-0.05031765482312532</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1335092081776393</v>
+        <v>-0.1870124059261064</v>
       </c>
       <c r="C97">
-        <v>-0.01073494318908447</v>
+        <v>-0.01215999036308093</v>
       </c>
       <c r="D97">
-        <v>0.03678545033249552</v>
+        <v>-0.01274595195687161</v>
       </c>
       <c r="E97">
-        <v>0.2392767576725401</v>
+        <v>0.01396604076319789</v>
       </c>
       <c r="F97">
-        <v>-0.02551731845495627</v>
+        <v>0.1826411202039663</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2351810753639053</v>
+        <v>-0.2064129622092134</v>
       </c>
       <c r="C98">
-        <v>-0.08814424947407203</v>
+        <v>0.006752444128791307</v>
       </c>
       <c r="D98">
-        <v>0.09209127838222615</v>
+        <v>0.0159848320880117</v>
       </c>
       <c r="E98">
-        <v>-0.2097435159088443</v>
+        <v>-0.09014865478626967</v>
       </c>
       <c r="F98">
-        <v>0.1628950110120045</v>
+        <v>0.1367674458738446</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.06879931581747838</v>
+        <v>-0.05793521131462386</v>
       </c>
       <c r="C99">
-        <v>-0.0572887172543536</v>
+        <v>-0.003146242096519113</v>
       </c>
       <c r="D99">
-        <v>0.006904217677248562</v>
+        <v>0.03458954499653792</v>
       </c>
       <c r="E99">
-        <v>-0.02691354636455708</v>
+        <v>0.02684800926503302</v>
       </c>
       <c r="F99">
-        <v>0.02300794035088385</v>
+        <v>-0.003824358078359201</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.0006119568335842421</v>
+        <v>-0.1242472220847456</v>
       </c>
       <c r="C100">
-        <v>0.007255920389792001</v>
+        <v>-0.04840633443235311</v>
       </c>
       <c r="D100">
-        <v>-0.0009904058291338559</v>
+        <v>0.3247928238030083</v>
       </c>
       <c r="E100">
-        <v>0.001578599120966828</v>
+        <v>-0.9047672088077188</v>
       </c>
       <c r="F100">
-        <v>-0.007471672381090396</v>
+        <v>0.05224732580845446</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03306018758384752</v>
+        <v>-0.02754039677108845</v>
       </c>
       <c r="C101">
-        <v>-0.02970820116461985</v>
+        <v>0.009135833774019962</v>
       </c>
       <c r="D101">
-        <v>-0.01913225972499993</v>
+        <v>0.02992163526512555</v>
       </c>
       <c r="E101">
-        <v>0.03600467177186357</v>
+        <v>0.008311395940261283</v>
       </c>
       <c r="F101">
-        <v>-0.04721355666487163</v>
+        <v>0.007784965368853407</v>
       </c>
     </row>
     <row r="102" spans="1:6">
